--- a/Time-Meetings.xlsx
+++ b/Time-Meetings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20182623\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20182623\Documents\GitHub\DBLVis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C579A0EA-AE72-45CF-BDD8-94644A25477B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7680E128-F233-4E97-B15B-6DB5E299032C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{6AEE411E-44E8-41BA-93A6-754AA6112F5D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>10.22</t>
+  </si>
+  <si>
+    <t>10.48</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,6 +575,15 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>

--- a/Time-Meetings.xlsx
+++ b/Time-Meetings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20182623\Documents\GitHub\DBLVis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7680E128-F233-4E97-B15B-6DB5E299032C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EC7054-70EB-40AF-A4AD-BF36F9BF9311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{6AEE411E-44E8-41BA-93A6-754AA6112F5D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>10.48</t>
+  </si>
+  <si>
+    <t>10.58</t>
+  </si>
+  <si>
+    <t>11.35</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,13 +592,42 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2">
+        <v>43591</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>

--- a/Time-Meetings.xlsx
+++ b/Time-Meetings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20182623\Documents\GitHub\DBLVis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EC7054-70EB-40AF-A4AD-BF36F9BF9311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED79CA85-1638-4546-AD1C-9F69F0D5F87A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{6AEE411E-44E8-41BA-93A6-754AA6112F5D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>11.35</t>
+  </si>
+  <si>
+    <t>10.50</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +602,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
